--- a/source_data_old/50_data.xlsx
+++ b/source_data_old/50_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B946BAC-1883-4C14-A602-18CC0C6DF5C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A4D524-CB91-47CC-9283-68C6E410F4B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54120" yWindow="-1320" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="indicator_50_data " sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="130">
   <si>
     <t>INDICATOR_NUM</t>
   </si>
@@ -384,9 +384,6 @@
   </si>
   <si>
     <t>COMMENT_OBS</t>
-  </si>
-  <si>
-    <t>Proportion of girls and women aged 15-49 years who have undergone female genital mutilation/cutting  by age</t>
   </si>
   <si>
     <t>Northern Africa</t>
@@ -1294,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,10 +1331,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" t="s">
         <v>129</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1471,10 +1468,10 @@
         <v>104</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>22</v>
@@ -1548,10 +1545,10 @@
         <v>104</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z3" s="3" t="s">
         <v>25</v>
@@ -1628,10 +1625,10 @@
         <v>104</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z4" s="3" t="s">
         <v>29</v>
@@ -1705,10 +1702,10 @@
         <v>104</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z5" s="3" t="s">
         <v>32</v>
@@ -1782,10 +1779,10 @@
         <v>104</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z6" s="3" t="s">
         <v>35</v>
@@ -1859,10 +1856,10 @@
         <v>104</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z7" s="3" t="s">
         <v>38</v>
@@ -1936,10 +1933,10 @@
         <v>104</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>41</v>
@@ -2013,10 +2010,10 @@
         <v>104</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>44</v>
@@ -2090,10 +2087,10 @@
         <v>104</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>47</v>
@@ -2167,10 +2164,10 @@
         <v>104</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z11" s="3" t="s">
         <v>50</v>
@@ -2244,10 +2241,10 @@
         <v>104</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z12" s="3" t="s">
         <v>47</v>
@@ -2324,10 +2321,10 @@
         <v>104</v>
       </c>
       <c r="W13" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X13" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z13" s="3" t="s">
         <v>56</v>
@@ -2401,10 +2398,10 @@
         <v>104</v>
       </c>
       <c r="W14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X14" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>59</v>
@@ -2478,10 +2475,10 @@
         <v>104</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>44</v>
@@ -2555,10 +2552,10 @@
         <v>104</v>
       </c>
       <c r="W16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X16" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z16" s="3" t="s">
         <v>64</v>
@@ -2632,10 +2629,10 @@
         <v>104</v>
       </c>
       <c r="W17" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X17" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z17" s="3" t="s">
         <v>64</v>
@@ -2709,10 +2706,10 @@
         <v>104</v>
       </c>
       <c r="W18" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X18" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z18" s="3" t="s">
         <v>50</v>
@@ -2786,10 +2783,10 @@
         <v>104</v>
       </c>
       <c r="W19" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X19" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z19" s="3" t="s">
         <v>44</v>
@@ -2863,10 +2860,10 @@
         <v>104</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X20" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>32</v>
@@ -2940,10 +2937,10 @@
         <v>104</v>
       </c>
       <c r="W21" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X21" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>75</v>
@@ -3017,10 +3014,10 @@
         <v>104</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>44</v>
@@ -3094,10 +3091,10 @@
         <v>104</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z23" s="3" t="s">
         <v>41</v>
@@ -3171,10 +3168,10 @@
         <v>104</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z24" s="3" t="s">
         <v>32</v>
@@ -3251,10 +3248,10 @@
         <v>104</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z25" s="3" t="s">
         <v>85</v>
@@ -3328,10 +3325,10 @@
         <v>104</v>
       </c>
       <c r="W26" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>88</v>
@@ -3405,10 +3402,10 @@
         <v>104</v>
       </c>
       <c r="W27" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X27" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z27" s="3" t="s">
         <v>91</v>
@@ -3485,10 +3482,10 @@
         <v>104</v>
       </c>
       <c r="W28" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X28" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z28" s="3" t="s">
         <v>95</v>
@@ -3562,10 +3559,10 @@
         <v>104</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>98</v>
@@ -3639,10 +3636,10 @@
         <v>104</v>
       </c>
       <c r="W30" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X30" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Z30" s="3" t="s">
         <v>44</v>
@@ -3665,13 +3662,13 @@
         <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>15</v>
       </c>
       <c r="G31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K31" t="s">
         <v>111</v>
@@ -3680,16 +3677,16 @@
         <v>2003</v>
       </c>
       <c r="N31" t="s">
+        <v>118</v>
+      </c>
+      <c r="O31" t="s">
         <v>119</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>120</v>
       </c>
-      <c r="P31" t="s">
+      <c r="Q31" t="s">
         <v>121</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>122</v>
       </c>
       <c r="R31">
         <v>91.5</v>
@@ -3701,19 +3698,19 @@
         <v>106</v>
       </c>
       <c r="U31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V31" s="1" t="s">
+      <c r="W31" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y31" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="X31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="AA31" s="3">
         <v>2019</v>
@@ -3733,7 +3730,7 @@
         <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2">
         <v>202</v>
@@ -3748,16 +3745,16 @@
         <v>2003</v>
       </c>
       <c r="N32" t="s">
+        <v>118</v>
+      </c>
+      <c r="O32" t="s">
         <v>119</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>120</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>121</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>122</v>
       </c>
       <c r="R32">
         <v>34.799999999999997</v>
@@ -3769,19 +3766,19 @@
         <v>106</v>
       </c>
       <c r="U32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V32" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="W32" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X32" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA32" s="3">
         <v>2019</v>
@@ -3801,7 +3798,7 @@
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F33">
         <v>120</v>
@@ -3825,10 +3822,10 @@
         <v>2004</v>
       </c>
       <c r="N33" t="s">
+        <v>118</v>
+      </c>
+      <c r="O33" t="s">
         <v>119</v>
-      </c>
-      <c r="O33" t="s">
-        <v>120</v>
       </c>
       <c r="P33" t="s">
         <v>114</v>
@@ -3852,10 +3849,10 @@
         <v>104</v>
       </c>
       <c r="W33" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X33" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA33" s="3">
         <v>2019</v>
@@ -3875,7 +3872,7 @@
         <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F34">
         <v>262</v>
@@ -3899,10 +3896,10 @@
         <v>2006</v>
       </c>
       <c r="N34" t="s">
+        <v>118</v>
+      </c>
+      <c r="O34" t="s">
         <v>119</v>
-      </c>
-      <c r="O34" t="s">
-        <v>120</v>
       </c>
       <c r="P34" t="s">
         <v>114</v>
@@ -3926,10 +3923,10 @@
         <v>104</v>
       </c>
       <c r="W34" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA34" s="3">
         <v>2019</v>
@@ -3949,7 +3946,7 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F35">
         <v>706</v>
@@ -3973,10 +3970,10 @@
         <v>2006</v>
       </c>
       <c r="N35" t="s">
+        <v>118</v>
+      </c>
+      <c r="O35" t="s">
         <v>119</v>
-      </c>
-      <c r="O35" t="s">
-        <v>120</v>
       </c>
       <c r="P35" t="s">
         <v>114</v>
@@ -4000,10 +3997,10 @@
         <v>104</v>
       </c>
       <c r="W35" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X35" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA35" s="3">
         <v>2019</v>
@@ -4023,13 +4020,13 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F36" s="2">
         <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K36" t="s">
         <v>111</v>
@@ -4038,16 +4035,16 @@
         <v>2008</v>
       </c>
       <c r="N36" t="s">
+        <v>118</v>
+      </c>
+      <c r="O36" t="s">
         <v>119</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>120</v>
       </c>
-      <c r="P36" t="s">
+      <c r="Q36" t="s">
         <v>121</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>122</v>
       </c>
       <c r="R36">
         <v>88.8</v>
@@ -4059,19 +4056,19 @@
         <v>106</v>
       </c>
       <c r="U36" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V36" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="W36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="X36" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y36" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="X36" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="AA36" s="3">
         <v>2019</v>
@@ -4091,7 +4088,7 @@
         <v>39</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2">
         <v>202</v>
@@ -4106,16 +4103,16 @@
         <v>2008</v>
       </c>
       <c r="N37" t="s">
+        <v>118</v>
+      </c>
+      <c r="O37" t="s">
         <v>119</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>120</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>121</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>122</v>
       </c>
       <c r="R37">
         <v>31.8</v>
@@ -4127,19 +4124,19 @@
         <v>106</v>
       </c>
       <c r="U37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V37" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V37" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="W37" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X37" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA37" s="3">
         <v>2019</v>
@@ -4159,7 +4156,7 @@
         <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F38">
         <v>140</v>
@@ -4183,10 +4180,10 @@
         <v>2010</v>
       </c>
       <c r="N38" t="s">
+        <v>118</v>
+      </c>
+      <c r="O38" t="s">
         <v>119</v>
-      </c>
-      <c r="O38" t="s">
-        <v>120</v>
       </c>
       <c r="P38" t="s">
         <v>114</v>
@@ -4210,10 +4207,10 @@
         <v>104</v>
       </c>
       <c r="W38" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X38" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA38" s="3">
         <v>2019</v>
@@ -4233,7 +4230,7 @@
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F39">
         <v>232</v>
@@ -4257,10 +4254,10 @@
         <v>2010</v>
       </c>
       <c r="N39" t="s">
+        <v>118</v>
+      </c>
+      <c r="O39" t="s">
         <v>119</v>
-      </c>
-      <c r="O39" t="s">
-        <v>120</v>
       </c>
       <c r="P39" t="s">
         <v>114</v>
@@ -4284,10 +4281,10 @@
         <v>104</v>
       </c>
       <c r="W39" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X39" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA39" s="3">
         <v>2019</v>
@@ -4307,7 +4304,7 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>854</v>
@@ -4331,10 +4328,10 @@
         <v>2010</v>
       </c>
       <c r="N40" t="s">
+        <v>118</v>
+      </c>
+      <c r="O40" t="s">
         <v>119</v>
-      </c>
-      <c r="O40" t="s">
-        <v>120</v>
       </c>
       <c r="P40" t="s">
         <v>114</v>
@@ -4358,10 +4355,10 @@
         <v>104</v>
       </c>
       <c r="W40" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X40" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA40" s="3">
         <v>2019</v>
@@ -4381,7 +4378,7 @@
         <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F41">
         <v>288</v>
@@ -4405,10 +4402,10 @@
         <v>2011</v>
       </c>
       <c r="N41" t="s">
+        <v>118</v>
+      </c>
+      <c r="O41" t="s">
         <v>119</v>
-      </c>
-      <c r="O41" t="s">
-        <v>120</v>
       </c>
       <c r="P41" t="s">
         <v>114</v>
@@ -4432,10 +4429,10 @@
         <v>104</v>
       </c>
       <c r="W41" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X41" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA41" s="3">
         <v>2019</v>
@@ -4455,7 +4452,7 @@
         <v>39</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F42">
         <v>562</v>
@@ -4479,10 +4476,10 @@
         <v>2012</v>
       </c>
       <c r="N42" t="s">
+        <v>118</v>
+      </c>
+      <c r="O42" t="s">
         <v>119</v>
-      </c>
-      <c r="O42" t="s">
-        <v>120</v>
       </c>
       <c r="P42" t="s">
         <v>114</v>
@@ -4506,10 +4503,10 @@
         <v>104</v>
       </c>
       <c r="W42" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X42" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA42" s="3">
         <v>2019</v>
@@ -4529,7 +4526,7 @@
         <v>39</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F43">
         <v>270</v>
@@ -4553,10 +4550,10 @@
         <v>2013</v>
       </c>
       <c r="N43" t="s">
+        <v>118</v>
+      </c>
+      <c r="O43" t="s">
         <v>119</v>
-      </c>
-      <c r="O43" t="s">
-        <v>120</v>
       </c>
       <c r="P43" t="s">
         <v>114</v>
@@ -4580,10 +4577,10 @@
         <v>104</v>
       </c>
       <c r="W43" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X43" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA43" s="3">
         <v>2019</v>
@@ -4603,7 +4600,7 @@
         <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F44">
         <v>430</v>
@@ -4627,10 +4624,10 @@
         <v>2013</v>
       </c>
       <c r="N44" t="s">
+        <v>118</v>
+      </c>
+      <c r="O44" t="s">
         <v>119</v>
-      </c>
-      <c r="O44" t="s">
-        <v>120</v>
       </c>
       <c r="P44" t="s">
         <v>114</v>
@@ -4654,10 +4651,10 @@
         <v>104</v>
       </c>
       <c r="W44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X44" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA44" s="3">
         <v>2019</v>
@@ -4677,7 +4674,7 @@
         <v>39</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F45">
         <v>887</v>
@@ -4701,10 +4698,10 @@
         <v>2013</v>
       </c>
       <c r="N45" t="s">
+        <v>118</v>
+      </c>
+      <c r="O45" t="s">
         <v>119</v>
-      </c>
-      <c r="O45" t="s">
-        <v>120</v>
       </c>
       <c r="P45" t="s">
         <v>114</v>
@@ -4728,10 +4725,10 @@
         <v>104</v>
       </c>
       <c r="W45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA45" s="3">
         <v>2019</v>
@@ -4751,13 +4748,13 @@
         <v>39</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2">
         <v>15</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K46" t="s">
         <v>111</v>
@@ -4766,16 +4763,16 @@
         <v>2013</v>
       </c>
       <c r="N46" t="s">
+        <v>118</v>
+      </c>
+      <c r="O46" t="s">
         <v>119</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>120</v>
       </c>
-      <c r="P46" t="s">
+      <c r="Q46" t="s">
         <v>121</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>122</v>
       </c>
       <c r="R46">
         <v>83</v>
@@ -4787,19 +4784,19 @@
         <v>106</v>
       </c>
       <c r="U46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V46" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V46" s="1" t="s">
+      <c r="W46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y46" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="W46" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y46" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="AA46" s="3">
         <v>2019</v>
@@ -4819,7 +4816,7 @@
         <v>39</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F47" s="2">
         <v>202</v>
@@ -4834,16 +4831,16 @@
         <v>2013</v>
       </c>
       <c r="N47" t="s">
+        <v>118</v>
+      </c>
+      <c r="O47" t="s">
         <v>119</v>
       </c>
-      <c r="O47" t="s">
+      <c r="P47" t="s">
         <v>120</v>
       </c>
-      <c r="P47" t="s">
+      <c r="Q47" t="s">
         <v>121</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>122</v>
       </c>
       <c r="R47">
         <v>29.3</v>
@@ -4855,19 +4852,19 @@
         <v>106</v>
       </c>
       <c r="U47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V47" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="W47" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X47" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA47" s="3">
         <v>2019</v>
@@ -4887,7 +4884,7 @@
         <v>39</v>
       </c>
       <c r="E48" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F48">
         <v>204</v>
@@ -4911,10 +4908,10 @@
         <v>2014</v>
       </c>
       <c r="N48" t="s">
+        <v>118</v>
+      </c>
+      <c r="O48" t="s">
         <v>119</v>
-      </c>
-      <c r="O48" t="s">
-        <v>120</v>
       </c>
       <c r="P48" t="s">
         <v>114</v>
@@ -4938,10 +4935,10 @@
         <v>104</v>
       </c>
       <c r="W48" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X48" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA48" s="3">
         <v>2019</v>
@@ -4961,7 +4958,7 @@
         <v>39</v>
       </c>
       <c r="E49" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F49">
         <v>404</v>
@@ -4985,10 +4982,10 @@
         <v>2014</v>
       </c>
       <c r="N49" t="s">
+        <v>118</v>
+      </c>
+      <c r="O49" t="s">
         <v>119</v>
-      </c>
-      <c r="O49" t="s">
-        <v>120</v>
       </c>
       <c r="P49" t="s">
         <v>114</v>
@@ -5012,10 +5009,10 @@
         <v>104</v>
       </c>
       <c r="W49" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X49" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA49" s="3">
         <v>2019</v>
@@ -5035,7 +5032,7 @@
         <v>39</v>
       </c>
       <c r="E50" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F50">
         <v>624</v>
@@ -5059,10 +5056,10 @@
         <v>2014</v>
       </c>
       <c r="N50" t="s">
+        <v>118</v>
+      </c>
+      <c r="O50" t="s">
         <v>119</v>
-      </c>
-      <c r="O50" t="s">
-        <v>120</v>
       </c>
       <c r="P50" t="s">
         <v>114</v>
@@ -5086,10 +5083,10 @@
         <v>104</v>
       </c>
       <c r="W50" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X50" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA50" s="3">
         <v>2019</v>
@@ -5109,7 +5106,7 @@
         <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>729</v>
@@ -5133,10 +5130,10 @@
         <v>2014</v>
       </c>
       <c r="N51" t="s">
+        <v>118</v>
+      </c>
+      <c r="O51" t="s">
         <v>119</v>
-      </c>
-      <c r="O51" t="s">
-        <v>120</v>
       </c>
       <c r="P51" t="s">
         <v>114</v>
@@ -5160,10 +5157,10 @@
         <v>104</v>
       </c>
       <c r="W51" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X51" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA51" s="3">
         <v>2019</v>
@@ -5183,7 +5180,7 @@
         <v>39</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F52">
         <v>768</v>
@@ -5207,10 +5204,10 @@
         <v>2014</v>
       </c>
       <c r="N52" t="s">
+        <v>118</v>
+      </c>
+      <c r="O52" t="s">
         <v>119</v>
-      </c>
-      <c r="O52" t="s">
-        <v>120</v>
       </c>
       <c r="P52" t="s">
         <v>114</v>
@@ -5234,10 +5231,10 @@
         <v>104</v>
       </c>
       <c r="W52" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X52" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA52" s="3">
         <v>2019</v>
@@ -5257,7 +5254,7 @@
         <v>39</v>
       </c>
       <c r="E53" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F53">
         <v>818</v>
@@ -5281,10 +5278,10 @@
         <v>2015</v>
       </c>
       <c r="N53" t="s">
+        <v>118</v>
+      </c>
+      <c r="O53" t="s">
         <v>119</v>
-      </c>
-      <c r="O53" t="s">
-        <v>120</v>
       </c>
       <c r="P53" t="s">
         <v>114</v>
@@ -5308,10 +5305,10 @@
         <v>104</v>
       </c>
       <c r="W53" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X53" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA53" s="3">
         <v>2019</v>
@@ -5331,7 +5328,7 @@
         <v>39</v>
       </c>
       <c r="E54" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F54">
         <v>148</v>
@@ -5355,10 +5352,10 @@
         <v>2015</v>
       </c>
       <c r="N54" t="s">
+        <v>118</v>
+      </c>
+      <c r="O54" t="s">
         <v>119</v>
-      </c>
-      <c r="O54" t="s">
-        <v>120</v>
       </c>
       <c r="P54" t="s">
         <v>114</v>
@@ -5382,10 +5379,10 @@
         <v>104</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA54" s="3">
         <v>2019</v>
@@ -5405,7 +5402,7 @@
         <v>39</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F55">
         <v>466</v>
@@ -5429,10 +5426,10 @@
         <v>2015</v>
       </c>
       <c r="N55" t="s">
+        <v>118</v>
+      </c>
+      <c r="O55" t="s">
         <v>119</v>
-      </c>
-      <c r="O55" t="s">
-        <v>120</v>
       </c>
       <c r="P55" t="s">
         <v>114</v>
@@ -5456,10 +5453,10 @@
         <v>104</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA55" s="3">
         <v>2019</v>
@@ -5479,7 +5476,7 @@
         <v>39</v>
       </c>
       <c r="E56" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F56">
         <v>478</v>
@@ -5503,10 +5500,10 @@
         <v>2015</v>
       </c>
       <c r="N56" t="s">
+        <v>118</v>
+      </c>
+      <c r="O56" t="s">
         <v>119</v>
-      </c>
-      <c r="O56" t="s">
-        <v>120</v>
       </c>
       <c r="P56" t="s">
         <v>114</v>
@@ -5530,10 +5527,10 @@
         <v>104</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA56" s="3">
         <v>2019</v>
@@ -5553,7 +5550,7 @@
         <v>39</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F57">
         <v>231</v>
@@ -5577,10 +5574,10 @@
         <v>2016</v>
       </c>
       <c r="N57" t="s">
+        <v>118</v>
+      </c>
+      <c r="O57" t="s">
         <v>119</v>
-      </c>
-      <c r="O57" t="s">
-        <v>120</v>
       </c>
       <c r="P57" t="s">
         <v>114</v>
@@ -5604,10 +5601,10 @@
         <v>104</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA57" s="3">
         <v>2019</v>
@@ -5627,7 +5624,7 @@
         <v>39</v>
       </c>
       <c r="E58" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F58">
         <v>324</v>
@@ -5651,10 +5648,10 @@
         <v>2016</v>
       </c>
       <c r="N58" t="s">
+        <v>118</v>
+      </c>
+      <c r="O58" t="s">
         <v>119</v>
-      </c>
-      <c r="O58" t="s">
-        <v>120</v>
       </c>
       <c r="P58" t="s">
         <v>114</v>
@@ -5678,10 +5675,10 @@
         <v>104</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA58" s="3">
         <v>2019</v>
@@ -5701,7 +5698,7 @@
         <v>39</v>
       </c>
       <c r="E59" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F59">
         <v>384</v>
@@ -5725,10 +5722,10 @@
         <v>2016</v>
       </c>
       <c r="N59" t="s">
+        <v>118</v>
+      </c>
+      <c r="O59" t="s">
         <v>119</v>
-      </c>
-      <c r="O59" t="s">
-        <v>120</v>
       </c>
       <c r="P59" t="s">
         <v>114</v>
@@ -5752,10 +5749,10 @@
         <v>104</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA59" s="3">
         <v>2019</v>
@@ -5775,7 +5772,7 @@
         <v>39</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F60">
         <v>800</v>
@@ -5799,10 +5796,10 @@
         <v>2016</v>
       </c>
       <c r="N60" t="s">
+        <v>118</v>
+      </c>
+      <c r="O60" t="s">
         <v>119</v>
-      </c>
-      <c r="O60" t="s">
-        <v>120</v>
       </c>
       <c r="P60" t="s">
         <v>114</v>
@@ -5826,10 +5823,10 @@
         <v>104</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA60" s="3">
         <v>2019</v>
@@ -5849,7 +5846,7 @@
         <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F61">
         <v>834</v>
@@ -5873,10 +5870,10 @@
         <v>2016</v>
       </c>
       <c r="N61" t="s">
+        <v>118</v>
+      </c>
+      <c r="O61" t="s">
         <v>119</v>
-      </c>
-      <c r="O61" t="s">
-        <v>120</v>
       </c>
       <c r="P61" t="s">
         <v>114</v>
@@ -5900,10 +5897,10 @@
         <v>104</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA61" s="3">
         <v>2019</v>
@@ -5923,7 +5920,7 @@
         <v>39</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F62">
         <v>566</v>
@@ -5947,10 +5944,10 @@
         <v>2017</v>
       </c>
       <c r="N62" t="s">
+        <v>118</v>
+      </c>
+      <c r="O62" t="s">
         <v>119</v>
-      </c>
-      <c r="O62" t="s">
-        <v>120</v>
       </c>
       <c r="P62" t="s">
         <v>114</v>
@@ -5974,10 +5971,10 @@
         <v>104</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA62" s="3">
         <v>2019</v>
@@ -5997,7 +5994,7 @@
         <v>39</v>
       </c>
       <c r="E63" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F63">
         <v>686</v>
@@ -6021,10 +6018,10 @@
         <v>2017</v>
       </c>
       <c r="N63" t="s">
+        <v>118</v>
+      </c>
+      <c r="O63" t="s">
         <v>119</v>
-      </c>
-      <c r="O63" t="s">
-        <v>120</v>
       </c>
       <c r="P63" t="s">
         <v>114</v>
@@ -6048,10 +6045,10 @@
         <v>104</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA63" s="3">
         <v>2019</v>
@@ -6071,7 +6068,7 @@
         <v>39</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F64">
         <v>694</v>
@@ -6095,10 +6092,10 @@
         <v>2017</v>
       </c>
       <c r="N64" t="s">
+        <v>118</v>
+      </c>
+      <c r="O64" t="s">
         <v>119</v>
-      </c>
-      <c r="O64" t="s">
-        <v>120</v>
       </c>
       <c r="P64" t="s">
         <v>114</v>
@@ -6122,10 +6119,10 @@
         <v>104</v>
       </c>
       <c r="W64" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA64" s="3">
         <v>2019</v>
@@ -6145,7 +6142,7 @@
         <v>39</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F65">
         <v>368</v>
@@ -6169,10 +6166,10 @@
         <v>2018</v>
       </c>
       <c r="N65" t="s">
+        <v>118</v>
+      </c>
+      <c r="O65" t="s">
         <v>119</v>
-      </c>
-      <c r="O65" t="s">
-        <v>120</v>
       </c>
       <c r="P65" t="s">
         <v>114</v>
@@ -6196,10 +6193,10 @@
         <v>104</v>
       </c>
       <c r="W65" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AA65" s="3">
         <v>2019</v>
@@ -6219,13 +6216,13 @@
         <v>39</v>
       </c>
       <c r="E66" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F66" s="2">
         <v>15</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K66" t="s">
         <v>111</v>
@@ -6234,16 +6231,16 @@
         <v>2018</v>
       </c>
       <c r="N66" t="s">
+        <v>118</v>
+      </c>
+      <c r="O66" t="s">
         <v>119</v>
       </c>
-      <c r="O66" t="s">
+      <c r="P66" t="s">
         <v>120</v>
       </c>
-      <c r="P66" t="s">
+      <c r="Q66" t="s">
         <v>121</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>122</v>
       </c>
       <c r="R66">
         <v>73.900000000000006</v>
@@ -6255,19 +6252,19 @@
         <v>106</v>
       </c>
       <c r="U66" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V66" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V66" s="1" t="s">
+      <c r="W66" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y66" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="W66" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>125</v>
       </c>
       <c r="AA66" s="3">
         <v>2019</v>
@@ -6287,7 +6284,7 @@
         <v>39</v>
       </c>
       <c r="E67" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="F67" s="2">
         <v>202</v>
@@ -6302,16 +6299,16 @@
         <v>2018</v>
       </c>
       <c r="N67" t="s">
+        <v>118</v>
+      </c>
+      <c r="O67" t="s">
         <v>119</v>
       </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>120</v>
       </c>
-      <c r="P67" t="s">
+      <c r="Q67" t="s">
         <v>121</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>122</v>
       </c>
       <c r="R67">
         <v>24.5</v>
@@ -6323,19 +6320,19 @@
         <v>106</v>
       </c>
       <c r="U67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V67" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="V67" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="W67" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AA67" s="3">
         <v>2019</v>

--- a/source_data_old/50_data.xlsx
+++ b/source_data_old/50_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lingyan.hu\Downloads\Step3_NewData\_Formatted\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonzalezmorales\projects\ARCGIS HUBS\gender_data_portal\source_data_old\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{76A5E2D5-60D3-4516-A345-7D4A1320A04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A9C5362-15DF-4072-BD47-1D5FE3CB3BF7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BABCD7F-B362-4F86-BD3F-39F7C2806EAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -757,15 +757,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BC46"/>
+  <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:55">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,36 +847,8 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
     </row>
-    <row r="2" spans="1:55">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>50</v>
       </c>
@@ -959,7 +931,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>50</v>
       </c>
@@ -1042,7 +1014,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>50</v>
       </c>
@@ -1125,7 +1097,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>50</v>
       </c>
@@ -1208,7 +1180,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1291,7 +1263,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1374,7 +1346,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:55">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>50</v>
       </c>
@@ -1457,7 +1429,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:55">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1540,7 +1512,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:55">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>50</v>
       </c>
@@ -1623,7 +1595,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:55">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>50</v>
       </c>
@@ -1706,7 +1678,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:55">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1789,7 +1761,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:55">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>50</v>
       </c>
@@ -1872,7 +1844,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:55">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>50</v>
       </c>
@@ -1955,7 +1927,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:55">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>50</v>
       </c>
@@ -2038,7 +2010,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:55">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>50</v>
       </c>
@@ -4475,15 +4447,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B1636FD24704A1439BC275B3C3F1C9C6" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96691d2a4c347ae1a5dfc0cee8216ec1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3d137487-0b15-4ad9-abee-bf6b36a5a6e0" xmlns:ns3="81cf108f-c583-47b3-8493-b6de3c823d22" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0f18913b399a1948fbd1deaf24005938" ns2:_="" ns3:_="">
     <xsd:import namespace="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
@@ -4706,6 +4669,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4715,13 +4687,38 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436F5A0E-AF4D-4604-9354-1F940B98C2A5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4352E2-728F-409F-A6F1-9BC590668D57}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+    <ds:schemaRef ds:uri="81cf108f-c583-47b3-8493-b6de3c823d22"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4352E2-728F-409F-A6F1-9BC590668D57}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436F5A0E-AF4D-4604-9354-1F940B98C2A5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0A1ECF-34F7-46CA-A7BE-9B1027E23BEA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD0A1ECF-34F7-46CA-A7BE-9B1027E23BEA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3d137487-0b15-4ad9-abee-bf6b36a5a6e0"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>